--- a/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_summer_perfect/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_summer_perfect/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>DPjgW9xEAZMSWwU</t>
+    <t>3qj9WJ3QcKJ68eJ</t>
   </si>
   <si>
     <t>000019889.csv</t>
@@ -1580,7 +1580,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_36', 'sfh_38', 'sfh_22', 'sfh_0', 'sfh_30', 'sfh_9', 'sfh_26', 'sfh_34', 'sfh_13', 'sfh_27']</t>
+    <t>['sfh_17', 'sfh_36', 'sfh_11', 'sfh_27', 'sfh_1', 'sfh_5', 'sfh_20', 'sfh_13', 'sfh_2', 'sfh_38']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2835,11 +2835,8 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>328</v>
       </c>
       <c r="H2">
         <v>130</v>
@@ -3010,7 +3007,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3292,7 +3289,7 @@
         <v>487</v>
       </c>
       <c r="IN2">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3343,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3352,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3365,7 +3362,10 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3714,7 +3714,7 @@
         <v>487</v>
       </c>
       <c r="IN3">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3787,7 +3787,10 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
@@ -3944,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4187,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4196,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4209,7 +4212,7 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
@@ -4381,7 +4384,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4663,7 +4666,7 @@
         <v>487</v>
       </c>
       <c r="IN5">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4720,7 +4723,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4729,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>503</v>
@@ -4796,11 +4799,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>3</v>
+      <c r="G6">
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4809,7 +4812,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4953,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5145,7 +5148,7 @@
         <v>487</v>
       </c>
       <c r="IN6">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5196,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5205,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5218,11 +5221,14 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>4</v>
+      <c r="F7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5231,7 +5237,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5390,7 +5396,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5723,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5732,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5745,7 +5751,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
@@ -5917,7 +5923,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -6199,7 +6205,7 @@
         <v>487</v>
       </c>
       <c r="IN8">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6256,7 +6262,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6271,7 +6277,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM8" t="s">
         <v>504</v>
@@ -6311,11 +6317,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>3</v>
+      <c r="G9">
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6324,7 +6330,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6483,7 +6489,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6765,7 +6771,7 @@
         <v>487</v>
       </c>
       <c r="IN9">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6816,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6825,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>505</v>
@@ -6865,7 +6871,7 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
@@ -7022,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -7214,7 +7220,7 @@
         <v>487</v>
       </c>
       <c r="IN10">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7265,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7274,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7287,11 +7293,8 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>328</v>
       </c>
       <c r="H11">
         <v>130</v>
@@ -7447,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7690,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7699,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7712,11 +7715,11 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>4</v>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -7725,7 +7728,7 @@
         <v>2.6</v>
       </c>
       <c r="K12">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -7869,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -8061,7 +8064,7 @@
         <v>487</v>
       </c>
       <c r="IN12">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8112,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8121,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:290">
@@ -8134,7 +8137,10 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
@@ -8291,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8483,7 +8489,7 @@
         <v>487</v>
       </c>
       <c r="IN13">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8534,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8543,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8556,7 +8562,7 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
@@ -8713,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8956,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -8965,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -8978,11 +8984,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>328</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -9153,7 +9159,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9408,7 +9414,7 @@
         <v>487</v>
       </c>
       <c r="IN15">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9459,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9468,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9481,7 +9487,7 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3</v>
       </c>
       <c r="H16">
@@ -9638,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9830,7 +9836,7 @@
         <v>487</v>
       </c>
       <c r="IN16">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9881,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9890,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:290">
@@ -9903,7 +9909,7 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
@@ -10075,7 +10081,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10330,7 +10336,7 @@
         <v>487</v>
       </c>
       <c r="IN17">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10381,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10390,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:290">
@@ -10403,11 +10409,11 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>3</v>
+      <c r="G18">
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10416,7 +10422,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10575,7 +10581,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10857,7 +10863,7 @@
         <v>487</v>
       </c>
       <c r="IN18">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10908,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10917,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:290">
@@ -10930,7 +10936,10 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19">
         <v>3</v>
       </c>
       <c r="H19">
@@ -11102,7 +11111,7 @@
         <v>50</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11357,7 +11366,7 @@
         <v>487</v>
       </c>
       <c r="IN19">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11408,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11417,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:290">
@@ -11430,7 +11439,7 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
@@ -11587,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11779,7 +11788,7 @@
         <v>487</v>
       </c>
       <c r="IN20">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -11830,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11839,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:290">
@@ -11852,11 +11861,11 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>4</v>
+      <c r="G21">
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -11865,7 +11874,7 @@
         <v>2.6</v>
       </c>
       <c r="K21">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -12009,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12201,7 +12210,7 @@
         <v>487</v>
       </c>
       <c r="IN21">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12252,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12261,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:290">
@@ -12274,7 +12283,10 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22">
         <v>4</v>
       </c>
       <c r="H22">
@@ -12431,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12623,7 +12635,7 @@
         <v>487</v>
       </c>
       <c r="IN22">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -12674,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12683,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:290">
@@ -12696,11 +12708,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>4</v>
+      <c r="G23">
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12709,7 +12721,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -12868,7 +12880,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13150,7 +13162,7 @@
         <v>487</v>
       </c>
       <c r="IN23">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13207,7 +13219,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13222,7 +13234,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>506</v>
@@ -13262,11 +13274,8 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>328</v>
       </c>
       <c r="H24">
         <v>130</v>
@@ -13437,7 +13446,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13692,7 +13701,7 @@
         <v>487</v>
       </c>
       <c r="IN24">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -13743,7 +13752,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13752,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:290">
@@ -13765,11 +13774,11 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
-        <v>4</v>
+      <c r="G25">
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -13778,7 +13787,7 @@
         <v>2.6</v>
       </c>
       <c r="K25">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -13937,7 +13946,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14192,7 +14201,7 @@
         <v>487</v>
       </c>
       <c r="IN25">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14243,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14252,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:290">
@@ -14265,7 +14274,7 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
@@ -14422,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14614,7 +14623,7 @@
         <v>487</v>
       </c>
       <c r="IN26">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14665,7 +14674,7 @@
         <v>0</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14674,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:290">
@@ -14687,11 +14696,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>4</v>
+      <c r="G27">
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -14700,7 +14709,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -14859,7 +14868,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15141,7 +15150,7 @@
         <v>487</v>
       </c>
       <c r="IN27">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15192,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15201,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:290">
@@ -15214,11 +15223,8 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>328</v>
       </c>
       <c r="H28">
         <v>130</v>
@@ -15389,7 +15395,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15671,7 +15677,7 @@
         <v>487</v>
       </c>
       <c r="IN28">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -15728,7 +15734,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15737,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:290">
@@ -15750,14 +15756,14 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
         <v>328</v>
       </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
       <c r="H29">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -15766,7 +15772,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -15925,7 +15931,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16210,7 +16216,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16219,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:290">
@@ -16232,7 +16238,7 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4</v>
       </c>
       <c r="H30">
@@ -16404,7 +16410,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16686,7 +16692,7 @@
         <v>487</v>
       </c>
       <c r="IN30">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16737,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16746,7 +16752,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM30" t="s">
         <v>507</v>
@@ -16813,11 +16819,11 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
-        <v>3</v>
+      <c r="G31">
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -16826,7 +16832,7 @@
         <v>2.6</v>
       </c>
       <c r="K31">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -16985,7 +16991,7 @@
         <v>41</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17267,7 +17273,7 @@
         <v>487</v>
       </c>
       <c r="IN31">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17324,7 +17330,7 @@
         <v>41</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17333,7 +17339,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM31" t="s">
         <v>508</v>
@@ -17400,11 +17406,8 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>328</v>
       </c>
       <c r="H32">
         <v>130</v>
@@ -17575,7 +17578,7 @@
         <v>65</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17857,7 +17860,7 @@
         <v>487</v>
       </c>
       <c r="IN32">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17914,7 +17917,7 @@
         <v>64</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH32">
         <v>4000</v>
@@ -17929,7 +17932,7 @@
         <v>65</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17942,11 +17945,11 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
-        <v>3</v>
+      <c r="G33">
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -17955,7 +17958,7 @@
         <v>2.6</v>
       </c>
       <c r="K33">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -18114,7 +18117,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18447,7 +18450,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18456,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18469,7 +18472,7 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
@@ -18641,7 +18644,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18923,7 +18926,7 @@
         <v>487</v>
       </c>
       <c r="IN34">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -18974,7 +18977,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18983,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>509</v>
@@ -19050,7 +19053,7 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4</v>
       </c>
       <c r="H35">
@@ -19207,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19450,7 +19453,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19459,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19472,11 +19475,8 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>328</v>
+      <c r="G36">
+        <v>3</v>
       </c>
       <c r="H36">
         <v>100</v>
@@ -19632,7 +19632,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19875,7 +19875,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19884,7 +19884,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19897,11 +19897,11 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>3</v>
+      <c r="G37">
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -19910,7 +19910,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -20069,7 +20069,7 @@
         <v>90</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20408,7 +20408,7 @@
         <v>71</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH37">
         <v>10600</v>
@@ -20423,7 +20423,7 @@
         <v>71</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20436,14 +20436,14 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s">
         <v>328</v>
       </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
       <c r="H38">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20452,7 +20452,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20611,7 +20611,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20944,7 +20944,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20953,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20966,7 +20966,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>3</v>
       </c>
       <c r="H39">
@@ -21138,7 +21138,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21420,7 +21420,7 @@
         <v>487</v>
       </c>
       <c r="IN39">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21477,7 +21477,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21486,7 +21486,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21499,11 +21499,11 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
         <v>328</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
       </c>
       <c r="H40">
         <v>100</v>
@@ -21659,7 +21659,7 @@
         <v>0</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21851,7 +21851,7 @@
         <v>487</v>
       </c>
       <c r="IN40">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21902,7 +21902,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21944,7 +21944,7 @@
         <v>514</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>515</v>
@@ -22063,7 +22063,7 @@
         <v>487</v>
       </c>
       <c r="S2">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="T2">
         <v>1</v>
